--- a/WebsiteCreator/ImageCreators/ImageCreator.xlsx
+++ b/WebsiteCreator/ImageCreators/ImageCreator.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27616"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/491e2628f664332b/Documents_Charl/Computer_Technical/Programming_GitHub/AustralianSchoolMaths/WebsiteCreator/ImageCreators/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\Documents_Charl\Computer_Technical\Programming_GitHub\AustralianSchoolMaths\WebsiteCreator\ImageCreators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{4DD8877E-1EE9-4535-B0CE-4E69E97E7C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3D2DA5C-5DFA-4AFF-98FA-06FF41096DCB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F84458-C025-4C3E-AD98-477962912314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{95822D8F-9FFC-4F5D-9AE5-1C1FA9EB8246}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{95822D8F-9FFC-4F5D-9AE5-1C1FA9EB8246}"/>
   </bookViews>
   <sheets>
-    <sheet name="MA_C3_Data" sheetId="2" r:id="rId1"/>
+    <sheet name="MA-C3_Data" sheetId="2" r:id="rId1"/>
     <sheet name="MA_C3_Graphs" sheetId="1" r:id="rId2"/>
+    <sheet name="MA_C4_Graphs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>X</t>
   </si>
@@ -85,6 +86,15 @@
   </si>
   <si>
     <t>f'(x)=0 and f''(x)&gt;0</t>
+  </si>
+  <si>
+    <t>Odd function</t>
+  </si>
+  <si>
+    <t>Even function</t>
+  </si>
+  <si>
+    <t>Area bounded by a curve example</t>
   </si>
 </sst>
 </file>
@@ -244,7 +254,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MA_C3_Data!$C$5</c:f>
+              <c:f>'MA-C3_Data'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -267,7 +277,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$B$6:$B$13</c:f>
+              <c:f>'MA-C3_Data'!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -300,7 +310,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$C$6:$C$13</c:f>
+              <c:f>'MA-C3_Data'!$C$6:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\);\-??</c:formatCode>
                 <c:ptCount val="8"/>
@@ -477,7 +487,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MA_C3_Data!$N$5</c:f>
+              <c:f>'MA-C3_Data'!$N$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -497,7 +507,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$H$6:$H$21</c:f>
+              <c:f>'MA-C3_Data'!$H$6:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -554,7 +564,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$N$6:$N$16</c:f>
+              <c:f>'MA-C3_Data'!$N$6:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -740,7 +750,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MA_C3_Data!$K$5</c:f>
+              <c:f>'MA-C3_Data'!$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -760,7 +770,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$H$6:$H$21</c:f>
+              <c:f>'MA-C3_Data'!$H$6:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -817,7 +827,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$K$6:$K$16</c:f>
+              <c:f>'MA-C3_Data'!$K$6:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1004,7 +1014,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MA_C3_Data!$L$5</c:f>
+              <c:f>'MA-C3_Data'!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1024,7 +1034,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$H$6:$H$21</c:f>
+              <c:f>'MA-C3_Data'!$H$6:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1081,7 +1091,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$L$6:$L$16</c:f>
+              <c:f>'MA-C3_Data'!$L$6:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1257,7 +1267,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MA_C3_Data!$D$5</c:f>
+              <c:f>'MA-C3_Data'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1280,7 +1290,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$B$6:$B$13</c:f>
+              <c:f>'MA-C3_Data'!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1313,7 +1323,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$D$6:$D$13</c:f>
+              <c:f>'MA-C3_Data'!$D$6:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\);\-??</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1614,7 +1624,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MA_C3_Data!$E$5</c:f>
+              <c:f>'MA-C3_Data'!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1637,7 +1647,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$B$6:$B$13</c:f>
+              <c:f>'MA-C3_Data'!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1670,7 +1680,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$E$6:$E$13</c:f>
+              <c:f>'MA-C3_Data'!$E$6:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\);\-??</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1981,7 +1991,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MA_C3_Data!$F$5</c:f>
+              <c:f>'MA-C3_Data'!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2004,7 +2014,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$B$6:$B$13</c:f>
+              <c:f>'MA-C3_Data'!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2037,7 +2047,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$F$6:$F$13</c:f>
+              <c:f>'MA-C3_Data'!$F$6:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\);\-??</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2214,7 +2224,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MA_C3_Data!$I$5</c:f>
+              <c:f>'MA-C3_Data'!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2237,7 +2247,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$H$6:$H$21</c:f>
+              <c:f>'MA-C3_Data'!$H$6:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2294,7 +2304,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$I$6:$I$21</c:f>
+              <c:f>'MA-C3_Data'!$I$6:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2495,7 +2505,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MA_C3_Data!$J$5</c:f>
+              <c:f>'MA-C3_Data'!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2518,7 +2528,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$H$6:$H$21</c:f>
+              <c:f>'MA-C3_Data'!$H$6:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2575,7 +2585,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$J$6:$J$21</c:f>
+              <c:f>'MA-C3_Data'!$J$6:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2776,7 +2786,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MA_C3_Data!$M$5</c:f>
+              <c:f>'MA-C3_Data'!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -2796,7 +2806,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$H$6:$H$21</c:f>
+              <c:f>'MA-C3_Data'!$H$6:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2853,7 +2863,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MA_C3_Data!$M$6:$M$16</c:f>
+              <c:f>'MA-C3_Data'!$M$6:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -10453,6 +10463,2369 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3D1394-9CF6-553F-14C4-035CB03E392A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4267200" y="1625600"/>
+          <a:ext cx="12700" cy="3219450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1517650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2482850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D8211C-D361-2861-811A-45D29E40D4ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="749300" y="2254250"/>
+          <a:ext cx="4953000" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>349250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>501650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2DF637C-F1EB-4A76-BFC1-3A5C1FB82EC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1155700" y="1085850"/>
+          <a:ext cx="69850" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23931186-6BC3-4D26-9881-2B56DAB83FE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3219450" y="704850"/>
+          <a:ext cx="12700" cy="3079750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1517650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2482850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE28894-B745-4C90-BE71-85B79EADDFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="749300" y="2254250"/>
+          <a:ext cx="4953000" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>273049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2228850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1435099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Freeform: Shape 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76E97035-AAD2-48D6-AE59-F6AD6B5924F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1054100" y="1009649"/>
+          <a:ext cx="4394200" cy="2686050"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3756265"/>
+            <a:gd name="connsiteY0" fmla="*/ 2178687 h 2210738"/>
+            <a:gd name="connsiteX1" fmla="*/ 1295400 w 3756265"/>
+            <a:gd name="connsiteY1" fmla="*/ 133987 h 2210738"/>
+            <a:gd name="connsiteX2" fmla="*/ 2609850 w 3756265"/>
+            <a:gd name="connsiteY2" fmla="*/ 2210437 h 2210738"/>
+            <a:gd name="connsiteX3" fmla="*/ 3606800 w 3756265"/>
+            <a:gd name="connsiteY3" fmla="*/ 286387 h 2210738"/>
+            <a:gd name="connsiteX4" fmla="*/ 3733800 w 3756265"/>
+            <a:gd name="connsiteY4" fmla="*/ 45087 h 2210738"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3748291"/>
+            <a:gd name="connsiteY0" fmla="*/ 2180107 h 2243903"/>
+            <a:gd name="connsiteX1" fmla="*/ 1295400 w 3748291"/>
+            <a:gd name="connsiteY1" fmla="*/ 135407 h 2243903"/>
+            <a:gd name="connsiteX2" fmla="*/ 2825750 w 3748291"/>
+            <a:gd name="connsiteY2" fmla="*/ 2243607 h 2243903"/>
+            <a:gd name="connsiteX3" fmla="*/ 3606800 w 3748291"/>
+            <a:gd name="connsiteY3" fmla="*/ 287807 h 2243903"/>
+            <a:gd name="connsiteX4" fmla="*/ 3733800 w 3748291"/>
+            <a:gd name="connsiteY4" fmla="*/ 46507 h 2243903"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3733800"/>
+            <a:gd name="connsiteY0" fmla="*/ 2133600 h 2197177"/>
+            <a:gd name="connsiteX1" fmla="*/ 1295400 w 3733800"/>
+            <a:gd name="connsiteY1" fmla="*/ 88900 h 2197177"/>
+            <a:gd name="connsiteX2" fmla="*/ 2825750 w 3733800"/>
+            <a:gd name="connsiteY2" fmla="*/ 2197100 h 2197177"/>
+            <a:gd name="connsiteX3" fmla="*/ 3733800 w 3733800"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 2197177"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3733800"/>
+            <a:gd name="connsiteY0" fmla="*/ 2133600 h 2133600"/>
+            <a:gd name="connsiteX1" fmla="*/ 1295400 w 3733800"/>
+            <a:gd name="connsiteY1" fmla="*/ 88900 h 2133600"/>
+            <a:gd name="connsiteX2" fmla="*/ 2819400 w 3733800"/>
+            <a:gd name="connsiteY2" fmla="*/ 1911350 h 2133600"/>
+            <a:gd name="connsiteX3" fmla="*/ 3733800 w 3733800"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 2133600"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 3733800"/>
+            <a:gd name="connsiteY0" fmla="*/ 2133600 h 2133600"/>
+            <a:gd name="connsiteX1" fmla="*/ 1295400 w 3733800"/>
+            <a:gd name="connsiteY1" fmla="*/ 88900 h 2133600"/>
+            <a:gd name="connsiteX2" fmla="*/ 3060700 w 3733800"/>
+            <a:gd name="connsiteY2" fmla="*/ 1955800 h 2133600"/>
+            <a:gd name="connsiteX3" fmla="*/ 3733800 w 3733800"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 2133600"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4121150"/>
+            <a:gd name="connsiteY0" fmla="*/ 2127250 h 2127250"/>
+            <a:gd name="connsiteX1" fmla="*/ 1295400 w 4121150"/>
+            <a:gd name="connsiteY1" fmla="*/ 82550 h 2127250"/>
+            <a:gd name="connsiteX2" fmla="*/ 3060700 w 4121150"/>
+            <a:gd name="connsiteY2" fmla="*/ 1949450 h 2127250"/>
+            <a:gd name="connsiteX3" fmla="*/ 4121150 w 4121150"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 2127250"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4121150"/>
+            <a:gd name="connsiteY0" fmla="*/ 2127250 h 2159067"/>
+            <a:gd name="connsiteX1" fmla="*/ 1295400 w 4121150"/>
+            <a:gd name="connsiteY1" fmla="*/ 82550 h 2159067"/>
+            <a:gd name="connsiteX2" fmla="*/ 3124200 w 4121150"/>
+            <a:gd name="connsiteY2" fmla="*/ 2159000 h 2159067"/>
+            <a:gd name="connsiteX3" fmla="*/ 4121150 w 4121150"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 2159067"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4121150"/>
+            <a:gd name="connsiteY0" fmla="*/ 2127250 h 2127250"/>
+            <a:gd name="connsiteX1" fmla="*/ 1295400 w 4121150"/>
+            <a:gd name="connsiteY1" fmla="*/ 82550 h 2127250"/>
+            <a:gd name="connsiteX2" fmla="*/ 3086100 w 4121150"/>
+            <a:gd name="connsiteY2" fmla="*/ 1682750 h 2127250"/>
+            <a:gd name="connsiteX3" fmla="*/ 4121150 w 4121150"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 2127250"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4121150"/>
+            <a:gd name="connsiteY0" fmla="*/ 2294467 h 2294467"/>
+            <a:gd name="connsiteX1" fmla="*/ 1282700 w 4121150"/>
+            <a:gd name="connsiteY1" fmla="*/ 2117 h 2294467"/>
+            <a:gd name="connsiteX2" fmla="*/ 3086100 w 4121150"/>
+            <a:gd name="connsiteY2" fmla="*/ 1849967 h 2294467"/>
+            <a:gd name="connsiteX3" fmla="*/ 4121150 w 4121150"/>
+            <a:gd name="connsiteY3" fmla="*/ 167217 h 2294467"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4394200"/>
+            <a:gd name="connsiteY0" fmla="*/ 2686050 h 2686050"/>
+            <a:gd name="connsiteX1" fmla="*/ 1282700 w 4394200"/>
+            <a:gd name="connsiteY1" fmla="*/ 393700 h 2686050"/>
+            <a:gd name="connsiteX2" fmla="*/ 3086100 w 4394200"/>
+            <a:gd name="connsiteY2" fmla="*/ 2241550 h 2686050"/>
+            <a:gd name="connsiteX3" fmla="*/ 4394200 w 4394200"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 2686050"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="4394200" h="2686050">
+              <a:moveTo>
+                <a:pt x="0" y="2686050"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="430212" y="1661054"/>
+                <a:pt x="768350" y="467783"/>
+                <a:pt x="1282700" y="393700"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1797050" y="319617"/>
+                <a:pt x="2567517" y="2307167"/>
+                <a:pt x="3086100" y="2241550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3604683" y="2175933"/>
+                <a:pt x="4205023" y="457729"/>
+                <a:pt x="4394200" y="0"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>850900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1492250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1409700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E0AD98-8BA3-40F4-B3D3-94A568F5A352}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8585200" y="1587500"/>
+          <a:ext cx="444500" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1282700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>889000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1682750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1441450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F164F0A8-1472-489C-BEC3-C036EE9285E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8820150" y="1625600"/>
+          <a:ext cx="400050" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1473200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>946150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1841500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1441450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{181211A6-F3A5-465E-A680-16A4964E7F0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9010650" y="1682750"/>
+          <a:ext cx="368300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1631950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1003300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1498600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3ECB5A-C5FD-4299-9D2D-EE5A999C2E7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9169400" y="1739900"/>
+          <a:ext cx="368300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>596900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08802794-78F5-49EB-A373-DCE1A7690DEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3702050" y="2298700"/>
+          <a:ext cx="444500" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1117600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9FB3FB-5806-4499-AD5D-34B8BB3C8D3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3937000" y="2336800"/>
+          <a:ext cx="400050" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>628650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B482D877-5FC4-45CE-A401-9A18E4DCC719}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4127500" y="2393950"/>
+          <a:ext cx="368300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1435100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FFA421E-0C65-4283-A6A6-986BF12F234D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4286250" y="2451100"/>
+          <a:ext cx="368300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2184400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2311400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>393700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF0E8463-0365-454E-9A03-C3BD18523E95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5403850" y="812800"/>
+          <a:ext cx="127000" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1365250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{934250FB-8F92-4CF9-BB30-6D715BB81C95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="996950" y="3625850"/>
+          <a:ext cx="88900" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>482599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2311400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>927284</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Freeform: Shape 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD55414F-6E5A-0B81-4D97-B2672C143DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1212850" y="1219199"/>
+          <a:ext cx="4318000" cy="1968685"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4400550"/>
+            <a:gd name="connsiteY0" fmla="*/ 254000 h 2331773"/>
+            <a:gd name="connsiteX1" fmla="*/ 1085850 w 4400550"/>
+            <a:gd name="connsiteY1" fmla="*/ 2286000 h 2331773"/>
+            <a:gd name="connsiteX2" fmla="*/ 1924050 w 4400550"/>
+            <a:gd name="connsiteY2" fmla="*/ 361950 h 2331773"/>
+            <a:gd name="connsiteX3" fmla="*/ 3149600 w 4400550"/>
+            <a:gd name="connsiteY3" fmla="*/ 2330450 h 2331773"/>
+            <a:gd name="connsiteX4" fmla="*/ 4400550 w 4400550"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2331773"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4400550"/>
+            <a:gd name="connsiteY0" fmla="*/ 254000 h 2331772"/>
+            <a:gd name="connsiteX1" fmla="*/ 723900 w 4400550"/>
+            <a:gd name="connsiteY1" fmla="*/ 2298700 h 2331772"/>
+            <a:gd name="connsiteX2" fmla="*/ 1924050 w 4400550"/>
+            <a:gd name="connsiteY2" fmla="*/ 361950 h 2331772"/>
+            <a:gd name="connsiteX3" fmla="*/ 3149600 w 4400550"/>
+            <a:gd name="connsiteY3" fmla="*/ 2330450 h 2331772"/>
+            <a:gd name="connsiteX4" fmla="*/ 4400550 w 4400550"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2331772"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4578350"/>
+            <a:gd name="connsiteY0" fmla="*/ 241300 h 2331772"/>
+            <a:gd name="connsiteX1" fmla="*/ 901700 w 4578350"/>
+            <a:gd name="connsiteY1" fmla="*/ 2298700 h 2331772"/>
+            <a:gd name="connsiteX2" fmla="*/ 2101850 w 4578350"/>
+            <a:gd name="connsiteY2" fmla="*/ 361950 h 2331772"/>
+            <a:gd name="connsiteX3" fmla="*/ 3327400 w 4578350"/>
+            <a:gd name="connsiteY3" fmla="*/ 2330450 h 2331772"/>
+            <a:gd name="connsiteX4" fmla="*/ 4578350 w 4578350"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2331772"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4641850"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2344472"/>
+            <a:gd name="connsiteX1" fmla="*/ 965200 w 4641850"/>
+            <a:gd name="connsiteY1" fmla="*/ 2311400 h 2344472"/>
+            <a:gd name="connsiteX2" fmla="*/ 2165350 w 4641850"/>
+            <a:gd name="connsiteY2" fmla="*/ 374650 h 2344472"/>
+            <a:gd name="connsiteX3" fmla="*/ 3390900 w 4641850"/>
+            <a:gd name="connsiteY3" fmla="*/ 2343150 h 2344472"/>
+            <a:gd name="connsiteX4" fmla="*/ 4641850 w 4641850"/>
+            <a:gd name="connsiteY4" fmla="*/ 12700 h 2344472"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4641850"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2346450"/>
+            <a:gd name="connsiteX1" fmla="*/ 965200 w 4641850"/>
+            <a:gd name="connsiteY1" fmla="*/ 2311400 h 2346450"/>
+            <a:gd name="connsiteX2" fmla="*/ 2152650 w 4641850"/>
+            <a:gd name="connsiteY2" fmla="*/ 565150 h 2346450"/>
+            <a:gd name="connsiteX3" fmla="*/ 3390900 w 4641850"/>
+            <a:gd name="connsiteY3" fmla="*/ 2343150 h 2346450"/>
+            <a:gd name="connsiteX4" fmla="*/ 4641850 w 4641850"/>
+            <a:gd name="connsiteY4" fmla="*/ 12700 h 2346450"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4521200"/>
+            <a:gd name="connsiteY0" fmla="*/ 361950 h 2333750"/>
+            <a:gd name="connsiteX1" fmla="*/ 844550 w 4521200"/>
+            <a:gd name="connsiteY1" fmla="*/ 2298700 h 2333750"/>
+            <a:gd name="connsiteX2" fmla="*/ 2032000 w 4521200"/>
+            <a:gd name="connsiteY2" fmla="*/ 552450 h 2333750"/>
+            <a:gd name="connsiteX3" fmla="*/ 3270250 w 4521200"/>
+            <a:gd name="connsiteY3" fmla="*/ 2330450 h 2333750"/>
+            <a:gd name="connsiteX4" fmla="*/ 4521200 w 4521200"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 2333750"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 4318000"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1968685"/>
+            <a:gd name="connsiteX1" fmla="*/ 844550 w 4318000"/>
+            <a:gd name="connsiteY1" fmla="*/ 1936750 h 1968685"/>
+            <a:gd name="connsiteX2" fmla="*/ 2032000 w 4318000"/>
+            <a:gd name="connsiteY2" fmla="*/ 190500 h 1968685"/>
+            <a:gd name="connsiteX3" fmla="*/ 3270250 w 4318000"/>
+            <a:gd name="connsiteY3" fmla="*/ 1968500 h 1968685"/>
+            <a:gd name="connsiteX4" fmla="*/ 4318000 w 4318000"/>
+            <a:gd name="connsiteY4" fmla="*/ 63500 h 1968685"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="4318000" h="1968685">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="382587" y="1007004"/>
+                <a:pt x="505883" y="1905000"/>
+                <a:pt x="844550" y="1936750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1183217" y="1968500"/>
+                <a:pt x="1627717" y="185208"/>
+                <a:pt x="2032000" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2436283" y="195792"/>
+                <a:pt x="2889250" y="1989667"/>
+                <a:pt x="3270250" y="1968500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3651250" y="1947333"/>
+                <a:pt x="4067175" y="511175"/>
+                <a:pt x="4318000" y="63500"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1993900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>869950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2438400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1428750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EFE10E3-CF45-BB8A-965D-67D5F6FF5EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2724150" y="1606550"/>
+          <a:ext cx="444500" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2228850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>908050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1460500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC07BE02-0296-B242-083D-544B62ED3492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2959100" y="1644650"/>
+          <a:ext cx="400050" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>965200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1460500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7EF75E-C34A-5128-0348-7598BE04618D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3149600" y="1701800"/>
+          <a:ext cx="368300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1136650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1517650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E36E8F8-18A9-F809-3315-1B82A8A43561}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3308350" y="1873250"/>
+          <a:ext cx="273050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>958850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Connector 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAB9DA6-6E05-66F1-8217-E88E43407C8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4178300" y="2266950"/>
+          <a:ext cx="279400" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>596900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1388E7-0C94-F50A-495E-3E08E839439E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4248150" y="2305050"/>
+          <a:ext cx="400050" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>596900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ABFDED5-1AA9-F095-8CF0-992E8CE486C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4438650" y="2362200"/>
+          <a:ext cx="368300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1377950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1746250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>654050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98210368-880D-0727-9D82-B2A7131CE3AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4597400" y="2419350"/>
+          <a:ext cx="368300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>958850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Connector 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69E77435-460E-0FE0-C93B-7655317629D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1689100" y="2266950"/>
+          <a:ext cx="279400" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>596900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48500E5-189C-4203-1496-5AB0B71505B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1758950" y="2305050"/>
+          <a:ext cx="400050" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>596900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C07D5F-D874-C8D9-B282-85F352DD8104}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1949450" y="2362200"/>
+          <a:ext cx="368300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1377950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1746250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>654050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Straight Connector 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0D19A87-B406-01C1-8B8B-48BF9B3B2AF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2108200" y="2419350"/>
+          <a:ext cx="368300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2279650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2349500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>596900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="Straight Arrow Connector 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796248BB-EC22-4CBD-A330-748C4D94207A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5499100" y="1174750"/>
+          <a:ext cx="69850" cy="158750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Straight Arrow Connector 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77CE467E-3087-48E6-AFE7-CDBE11B107B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3219450" y="1993900"/>
+          <a:ext cx="12700" cy="3079750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1517650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2482850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Arrow Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00300B83-CD5A-4ABE-95B7-FAF4BB502B7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="749300" y="3543300"/>
+          <a:ext cx="4953000" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1162014</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>393700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1612900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1136650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="Freeform: Shape 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31C47C0E-D18E-8490-505E-17599F7669FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1892264" y="946150"/>
+          <a:ext cx="2940086" cy="2266950"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 2889264 w 2921014"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2101850"/>
+            <a:gd name="connsiteX1" fmla="*/ 14 w 2921014"/>
+            <a:gd name="connsiteY1" fmla="*/ 1123950 h 2101850"/>
+            <a:gd name="connsiteX2" fmla="*/ 2921014 w 2921014"/>
+            <a:gd name="connsiteY2" fmla="*/ 2101850 h 2101850"/>
+            <a:gd name="connsiteX0" fmla="*/ 2889286 w 2940086"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2197100"/>
+            <a:gd name="connsiteX1" fmla="*/ 36 w 2940086"/>
+            <a:gd name="connsiteY1" fmla="*/ 1123950 h 2197100"/>
+            <a:gd name="connsiteX2" fmla="*/ 2940086 w 2940086"/>
+            <a:gd name="connsiteY2" fmla="*/ 2197100 h 2197100"/>
+            <a:gd name="connsiteX0" fmla="*/ 2889286 w 2940086"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2266950"/>
+            <a:gd name="connsiteX1" fmla="*/ 36 w 2940086"/>
+            <a:gd name="connsiteY1" fmla="*/ 1123950 h 2266950"/>
+            <a:gd name="connsiteX2" fmla="*/ 2940086 w 2940086"/>
+            <a:gd name="connsiteY2" fmla="*/ 2266950 h 2266950"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2940086" h="2266950">
+              <a:moveTo>
+                <a:pt x="2889286" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1442015" y="386821"/>
+                <a:pt x="-8431" y="746125"/>
+                <a:pt x="36" y="1123950"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8503" y="1501775"/>
+                <a:pt x="2429969" y="2089150"/>
+                <a:pt x="2940086" y="2266950"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1428750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1225550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1625600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="Straight Connector 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72CCAB5-69B7-2D0E-91ED-5EFB364AF628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2159000" y="1778000"/>
+          <a:ext cx="196850" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1581150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1136650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1917700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Straight Connector 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E596EE-7CAF-4658-B650-1D2DBD57971A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2311400" y="1689100"/>
+          <a:ext cx="336550" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1022350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2222500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>374650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="Straight Connector 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63D25B21-03BC-4D99-896F-953EE6DDA56D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2463800" y="1574800"/>
+          <a:ext cx="488950" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1949450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1187450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2374900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="Straight Connector 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148B208A-E21D-42FE-B4CE-26129628D721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2679700" y="1739900"/>
+          <a:ext cx="425450" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2387600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>450850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="132" name="Straight Connector 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FB5D93-6729-42B6-8CCC-008A301E5A62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2921000" y="2139950"/>
+          <a:ext cx="196850" cy="387350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1593850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1130300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1765300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1187450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="Straight Arrow Connector 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA1A8C25-E81A-4060-BD69-70E475D72009}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4813300" y="3206750"/>
+          <a:ext cx="171450" cy="57150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1549400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1727200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="135" name="Straight Arrow Connector 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9654123-2888-4EDC-935C-372888024345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4768850" y="908050"/>
+          <a:ext cx="177800" cy="44450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -11392,8 +13765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A714855B-86AA-4A76-A378-27F08BDFF80C}">
   <dimension ref="B5:K8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11446,4 +13819,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476B760B-DFB9-4588-8A28-05A9B8C1EB1D}">
+  <dimension ref="A2:G15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="3" width="35.6328125" customWidth="1"/>
+    <col min="7" max="8" width="35.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:7" ht="120" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/WebsiteCreator/ImageCreators/ImageCreator.xlsx
+++ b/WebsiteCreator/ImageCreators/ImageCreator.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\Documents_Charl\Computer_Technical\Programming_GitHub\AustralianSchoolMaths\WebsiteCreator\ImageCreators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F84458-C025-4C3E-AD98-477962912314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AACA474-D872-46D8-8026-C5E00300697F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{95822D8F-9FFC-4F5D-9AE5-1C1FA9EB8246}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{95822D8F-9FFC-4F5D-9AE5-1C1FA9EB8246}"/>
   </bookViews>
   <sheets>
     <sheet name="MA-C3_Data" sheetId="2" r:id="rId1"/>
     <sheet name="MA_C3_Graphs" sheetId="1" r:id="rId2"/>
     <sheet name="MA_C4_Graphs" sheetId="3" r:id="rId3"/>
+    <sheet name="ME_C1_Graphs" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>X</t>
   </si>
@@ -96,16 +97,50 @@
   <si>
     <t>Area bounded by a curve example</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Positive k</t>
+  </si>
+  <si>
+    <t>Negative k</t>
+  </si>
+  <si>
+    <t>Rate of change directly proportional to the current quantity</t>
+  </si>
+  <si>
+    <t>Proportionate to N, Positive k</t>
+  </si>
+  <si>
+    <t>Proportional to N, Negative k</t>
+  </si>
+  <si>
+    <t>Proportionate to N less constant , Positive k</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>Proportionate to N less constant , Negative k</t>
+  </si>
+  <si>
+    <t>Rate of change directly proportional to the current quantity less fixed quantity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00_);\(#,##0.00\);\-??"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\);\-??"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +166,21 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -186,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,13 +261,84 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\);\-??"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\);\-??"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\);\-??"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\);\-??"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4472C4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="SpreadsheetBiStyle" pivot="0" table="0" count="4" xr9:uid="{EB198CA1-7DAD-4071-B598-2F3BAAEB17C5}">
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1196,6 +1317,2471 @@
         <c:crossAx val="1089532016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Growth</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>positive</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> value of k)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.3673447069116362E-2"/>
+          <c:y val="3.7036898672337483E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18730555555555559"/>
+          <c:y val="0.17634259259259263"/>
+          <c:w val="0.77502777777777776"/>
+          <c:h val="0.63670567220764074"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ME_C1_Graphs!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proportionate to N, Positive k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ME_C1_Graphs!$B$10:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ME_C1_Graphs!$C$10:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0_);\(#,##0.0\);\-??</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>884.13673446051814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>977.12220652813585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1079.8870460608025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1193.4597581130163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1318.9770165601026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1457.6950403124074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1611.0021659763813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1780.4327427939743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1967.6824889255599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2174.6254627672361</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2403.3328191571468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2656.0935381892386</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2935.4373340953957</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3244.1599734757401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3585.3512562704518</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3962.4259395160921</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4379.1579133817604</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4839.7179715303573</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5348.7155538234165</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5911.2448791445204</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6532.9359300541209</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7220.0107995472972</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7979.3459638517788</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8818.5411045132842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9745.9951685627784</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10770.990428001352</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11903.785379898269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F60-4285-B470-D879BCBCDE94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2124773040"/>
+        <c:axId val="2124760080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2124773040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>time (t)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="arrow"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124760080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2124760080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Quantity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.20555555555555552"/>
+              <c:y val="0.26042432195975501"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0_);\(#,##0.0\);\-??" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="arrow"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124773040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Decay (negative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" baseline="0"/>
+              <a:t> value of k)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.922900262467192E-2"/>
+          <c:y val="3.3387263635841137E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ME_C1_Graphs!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proportionate to N, Positive k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ME_C1_Graphs!$B$10:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ME_C1_Graphs!$D$10:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0_);\(#,##0.0\);\-??</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>723.86993442876758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>654.98460246238551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>592.65457654537431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>536.25603682851147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485.22452777010676</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>439.04930887522113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>397.26824303312759</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>359.46317129377724</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325.25572779247926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>294.30355293715388</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>266.29686695846362</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240.95536952976161</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>218.02543442721009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>197.27757115328515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>178.50412811874386</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161.5172143957243</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>146.14681924218769</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132.23911057726923</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119.65489537810802</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108.26822658929017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97.965142602385527</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88.642526689867097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80.207074978242971</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72.574362631529979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65.667998899119041</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59.418862571467102</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53.764410191799804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F8F-42CB-92F3-9E934E3A4943}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2124773040"/>
+        <c:axId val="2124760080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2124773040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>time (t)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="arrow"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124760080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2124760080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="-200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Quantity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.18611111111111112"/>
+              <c:y val="0.54555519101778949"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0_);\(#,##0.0\);\-??" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="arrow"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124773040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="800"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Growth (positive</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> value of k)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.6775231481481474E-2"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19008333333333335"/>
+          <c:y val="0.17634260589689063"/>
+          <c:w val="0.77502777777777776"/>
+          <c:h val="0.63670567220764074"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ME_C1_Graphs!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proportionate to N, Positive k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ME_C1_Graphs!$B$10:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ME_C1_Graphs!$E$10:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0_);\(#,##0.0\);\-??</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>914.13673446051814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1007.1222065281358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1109.8870460608025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1223.4597581130163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1348.9770165601026</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1487.6950403124074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1641.0021659763813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1810.4327427939743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1997.6824889255599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2204.6254627672361</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2433.3328191571468</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2686.0935381892386</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2965.4373340953957</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3274.1599734757401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3615.3512562704518</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3992.4259395160921</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4409.1579133817604</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4869.7179715303573</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5378.7155538234165</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5941.2448791445204</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6562.9359300541209</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7250.0107995472972</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8009.3459638517788</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8848.5411045132842</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9775.9951685627784</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10800.990428001352</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11933.785379898269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F60-4285-B470-D879BCBCDE94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2124773040"/>
+        <c:axId val="2124760080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2124773040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>time (t)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="arrow"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124760080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2124760080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-5000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Quantity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.20555555555555552"/>
+              <c:y val="0.26042432195975501"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0_);\(#,##0.0\);\-??" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="arrow"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124773040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Decay (negative value of k)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0965046296296298E-2"/>
+          <c:y val="3.7037037037037049E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ME_C1_Graphs!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Proportionate to N, Positive k</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ME_C1_Graphs!$B$10:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ME_C1_Graphs!$D$10:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0_);\(#,##0.0\);\-??</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>723.86993442876758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>654.98460246238551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>592.65457654537431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>536.25603682851147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>485.22452777010676</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>439.04930887522113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>397.26824303312759</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>359.46317129377724</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325.25572779247926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>294.30355293715388</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>266.29686695846362</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240.95536952976161</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>218.02543442721009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>197.27757115328515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>178.50412811874386</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161.5172143957243</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>146.14681924218769</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>132.23911057726923</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119.65489537810802</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>108.26822658929017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97.965142602385527</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88.642526689867097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80.207074978242971</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72.574362631529979</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65.667998899119041</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59.418862571467102</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53.764410191799804</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F8F-42CB-92F3-9E934E3A4943}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2124773040"/>
+        <c:axId val="2124760080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2124773040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>time (t)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="arrow"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124760080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2124760080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="-200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Quantity</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.18611111111111112"/>
+              <c:y val="0.54555519101778949"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0_);\(#,##0.0\);\-??" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd type="arrow"/>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124773040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="800"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3135,6 +5721,166 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5043,6 +7789,2070 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12826,6 +17636,1363 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>354425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7BEA9A-BCDC-4AB3-3E12-BD4E4CA1207C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>395700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE0E22E-E512-43EE-B9BA-F86806A9DCC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>450850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4B00F7-33B7-9CA1-65D9-62E83C9878F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15938500" y="1498600"/>
+          <a:ext cx="971550" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Initial quanity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> = A</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE5B891-D8F6-E8EE-5E60-A95FE386A54C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9702800" y="2324100"/>
+          <a:ext cx="939800" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Initial quanity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> = A</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768800" cy="180690"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCD0A7C-3E46-79C2-E580-D30E89DE6120}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12417425" y="2346325"/>
+              <a:ext cx="768800" cy="180690"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑁</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-AU" sz="1100" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ⅇ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘𝑡</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-AU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCD0A7C-3E46-79C2-E580-D30E89DE6120}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12417425" y="2346325"/>
+              <a:ext cx="768800" cy="180690"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡)=𝐴ⅇ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-AU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="768800" cy="180690"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F0E291-DE63-A2DE-14C4-4A149899BDBB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18303875" y="2771775"/>
+              <a:ext cx="768800" cy="180690"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑁</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-AU" sz="1100" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ⅇ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘𝑡</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-AU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F0E291-DE63-A2DE-14C4-4A149899BDBB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="18303875" y="2771775"/>
+              <a:ext cx="768800" cy="180690"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡)=𝐴ⅇ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-AU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>434975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>487775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E1C20D4-7A68-D912-DEE0-D138E43BC075}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BBFF72-CED8-4DAE-D82E-CDD5AEC6979C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9747250" y="6381750"/>
+          <a:ext cx="1085850" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Initial quanity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> = P + A</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>129000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>77700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AE4AAD-DE5F-C607-62C8-D7CD0DD1340C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C35C96CB-98D7-F127-85CA-C2773AC0C862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16389350" y="5295900"/>
+          <a:ext cx="749300" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100"/>
+            <a:t>Initial quanity</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
+            <a:t> = P + A</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1027845" cy="180690"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD1A2BB-3938-50B7-60A6-5C15F2EC63FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12245975" y="6524625"/>
+              <a:ext cx="1027845" cy="180690"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑁</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑃</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-AU" sz="1100" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ⅇ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘𝑡</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-AU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD1A2BB-3938-50B7-60A6-5C15F2EC63FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12245975" y="6524625"/>
+              <a:ext cx="1027845" cy="180690"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡)=𝑃+𝐴ⅇ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-AU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1027845" cy="180690"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407000C3-2B56-C3F3-5FE0-A53838ADE62B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17999075" y="6283325"/>
+              <a:ext cx="1027845" cy="180690"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑁</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑃</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="0">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-AU" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐴</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:srgbClr val="836967"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-AU" sz="1100" i="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>ⅇ</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-AU" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑘𝑡</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-AU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{407000C3-2B56-C3F3-5FE0-A53838ADE62B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17999075" y="6283325"/>
+              <a:ext cx="1027845" cy="180690"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡)=𝑃+𝐴ⅇ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="836967"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-AU" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑘𝑡</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-AU" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3B3C7C7-AF1F-4A7F-8A09-7DC856424F0D}" name="tbl_ME_C1" displayName="tbl_ME_C1" ref="B9:F37" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B9:F37" xr:uid="{A3B3C7C7-AF1F-4A7F-8A09-7DC856424F0D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D41C0A0C-442C-4208-B8D0-838DA3ABA3A0}" name="t"/>
+    <tableColumn id="2" xr3:uid="{AD38AF44-9460-475D-82F7-7FAD54AC14B7}" name="Proportionate to N, Positive k" dataDxfId="3">
+      <calculatedColumnFormula>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{F19DB98F-77B8-4CFE-9912-D45185B9790A}" name="Proportional to N, Negative k" dataDxfId="2">
+      <calculatedColumnFormula>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7122ABDF-7224-4C1F-92E1-09C23BF90E4E}" name="Proportionate to N less constant , Positive k" dataDxfId="1">
+      <calculatedColumnFormula>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C9826035-43E5-4036-A801-A46559EDCC3A}" name="Proportionate to N less constant , Negative k" dataDxfId="0">
+      <calculatedColumnFormula>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="SpreadsheetBiStyle" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13823,10 +19990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476B760B-DFB9-4588-8A28-05A9B8C1EB1D}">
-  <dimension ref="A2:G15"/>
+  <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13857,4 +20024,677 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18615FD3-A775-4D4B-8C11-E73F9D8F02C4}">
+  <dimension ref="B2:Q37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="P47" sqref="P46:P47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="17" x14ac:dyDescent="0.4">
+      <c r="B2" s="12"/>
+      <c r="K2" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="B9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>800</v>
+      </c>
+      <c r="D10" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>800</v>
+      </c>
+      <c r="E10" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>830</v>
+      </c>
+      <c r="F10" s="11">
+        <f>$C$7+$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>884.13673446051814</v>
+      </c>
+      <c r="D11" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>723.86993442876758</v>
+      </c>
+      <c r="E11" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>914.13673446051814</v>
+      </c>
+      <c r="F11" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>914.13673446051814</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>977.12220652813585</v>
+      </c>
+      <c r="D12" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>654.98460246238551</v>
+      </c>
+      <c r="E12" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1007.1222065281358</v>
+      </c>
+      <c r="F12" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1007.1222065281358</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1079.8870460608025</v>
+      </c>
+      <c r="D13" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>592.65457654537431</v>
+      </c>
+      <c r="E13" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1109.8870460608025</v>
+      </c>
+      <c r="F13" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1109.8870460608025</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1193.4597581130163</v>
+      </c>
+      <c r="D14" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>536.25603682851147</v>
+      </c>
+      <c r="E14" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1223.4597581130163</v>
+      </c>
+      <c r="F14" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1223.4597581130163</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1318.9770165601026</v>
+      </c>
+      <c r="D15" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>485.22452777010676</v>
+      </c>
+      <c r="E15" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1348.9770165601026</v>
+      </c>
+      <c r="F15" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1348.9770165601026</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1457.6950403124074</v>
+      </c>
+      <c r="D16" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>439.04930887522113</v>
+      </c>
+      <c r="E16" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1487.6950403124074</v>
+      </c>
+      <c r="F16" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1487.6950403124074</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1611.0021659763813</v>
+      </c>
+      <c r="D17" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>397.26824303312759</v>
+      </c>
+      <c r="E17" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1641.0021659763813</v>
+      </c>
+      <c r="F17" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1641.0021659763813</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1780.4327427939743</v>
+      </c>
+      <c r="D18" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>359.46317129377724</v>
+      </c>
+      <c r="E18" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1810.4327427939743</v>
+      </c>
+      <c r="F18" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1810.4327427939743</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1967.6824889255599</v>
+      </c>
+      <c r="D19" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>325.25572779247926</v>
+      </c>
+      <c r="E19" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1997.6824889255599</v>
+      </c>
+      <c r="F19" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>1997.6824889255599</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>2174.6254627672361</v>
+      </c>
+      <c r="D20" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>294.30355293715388</v>
+      </c>
+      <c r="E20" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>2204.6254627672361</v>
+      </c>
+      <c r="F20" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>2204.6254627672361</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>2403.3328191571468</v>
+      </c>
+      <c r="D21" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>266.29686695846362</v>
+      </c>
+      <c r="E21" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>2433.3328191571468</v>
+      </c>
+      <c r="F21" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>2433.3328191571468</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="17" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>2656.0935381892386</v>
+      </c>
+      <c r="D22" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>240.95536952976161</v>
+      </c>
+      <c r="E22" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>2686.0935381892386</v>
+      </c>
+      <c r="F22" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>2686.0935381892386</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>2935.4373340953957</v>
+      </c>
+      <c r="D23" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>218.02543442721009</v>
+      </c>
+      <c r="E23" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>2965.4373340953957</v>
+      </c>
+      <c r="F23" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>2965.4373340953957</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>3244.1599734757401</v>
+      </c>
+      <c r="D24" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>197.27757115328515</v>
+      </c>
+      <c r="E24" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>3274.1599734757401</v>
+      </c>
+      <c r="F24" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>3274.1599734757401</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>3585.3512562704518</v>
+      </c>
+      <c r="D25" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>178.50412811874386</v>
+      </c>
+      <c r="E25" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>3615.3512562704518</v>
+      </c>
+      <c r="F25" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>3615.3512562704518</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>3962.4259395160921</v>
+      </c>
+      <c r="D26" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>161.5172143957243</v>
+      </c>
+      <c r="E26" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>3992.4259395160921</v>
+      </c>
+      <c r="F26" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>3992.4259395160921</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>4379.1579133817604</v>
+      </c>
+      <c r="D27" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>146.14681924218769</v>
+      </c>
+      <c r="E27" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>4409.1579133817604</v>
+      </c>
+      <c r="F27" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>4409.1579133817604</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>4839.7179715303573</v>
+      </c>
+      <c r="D28" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>132.23911057726923</v>
+      </c>
+      <c r="E28" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>4869.7179715303573</v>
+      </c>
+      <c r="F28" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>4869.7179715303573</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>5348.7155538234165</v>
+      </c>
+      <c r="D29" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>119.65489537810802</v>
+      </c>
+      <c r="E29" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>5378.7155538234165</v>
+      </c>
+      <c r="F29" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>5378.7155538234165</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>5911.2448791445204</v>
+      </c>
+      <c r="D30" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>108.26822658929017</v>
+      </c>
+      <c r="E30" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>5941.2448791445204</v>
+      </c>
+      <c r="F30" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>5941.2448791445204</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>6532.9359300541209</v>
+      </c>
+      <c r="D31" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>97.965142602385527</v>
+      </c>
+      <c r="E31" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>6562.9359300541209</v>
+      </c>
+      <c r="F31" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>6562.9359300541209</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>7220.0107995472972</v>
+      </c>
+      <c r="D32" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>88.642526689867097</v>
+      </c>
+      <c r="E32" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>7250.0107995472972</v>
+      </c>
+      <c r="F32" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>7250.0107995472972</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>23</v>
+      </c>
+      <c r="C33" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>7979.3459638517788</v>
+      </c>
+      <c r="D33" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>80.207074978242971</v>
+      </c>
+      <c r="E33" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>8009.3459638517788</v>
+      </c>
+      <c r="F33" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>8009.3459638517788</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>8818.5411045132842</v>
+      </c>
+      <c r="D34" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>72.574362631529979</v>
+      </c>
+      <c r="E34" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>8848.5411045132842</v>
+      </c>
+      <c r="F34" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>8848.5411045132842</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>9745.9951685627784</v>
+      </c>
+      <c r="D35" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>65.667998899119041</v>
+      </c>
+      <c r="E35" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>9775.9951685627784</v>
+      </c>
+      <c r="F35" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>9775.9951685627784</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>26</v>
+      </c>
+      <c r="C36" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>10770.990428001352</v>
+      </c>
+      <c r="D36" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>59.418862571467102</v>
+      </c>
+      <c r="E36" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>10800.990428001352</v>
+      </c>
+      <c r="F36" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>10800.990428001352</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37" s="11">
+        <f>$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>11903.785379898269</v>
+      </c>
+      <c r="D37" s="11">
+        <f>$C$4* EXP($C$6*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>53.764410191799804</v>
+      </c>
+      <c r="E37" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>11933.785379898269</v>
+      </c>
+      <c r="F37" s="11">
+        <f>$C$7+$C$4* EXP($C$5*tbl_ME_C1[[#This Row],[t]])</f>
+        <v>11933.785379898269</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/WebsiteCreator/ImageCreators/ImageCreator.xlsx
+++ b/WebsiteCreator/ImageCreators/ImageCreator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\Documents_Charl\Computer_Technical\Programming_GitHub\AustralianSchoolMaths\WebsiteCreator\ImageCreators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AACA474-D872-46D8-8026-C5E00300697F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E83DC3B-C372-40F6-ADB2-5714DB11CCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{95822D8F-9FFC-4F5D-9AE5-1C1FA9EB8246}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>X</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>Negative k</t>
-  </si>
-  <si>
-    <t>Rate of change directly proportional to the current quantity</t>
   </si>
   <si>
     <t>Proportionate to N, Positive k</t>
@@ -1384,12 +1381,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1397,22 +1391,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Growth</a:t>
+              <a:rPr lang="en-AU" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Growth (positive</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> (</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>positive</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
+              <a:rPr lang="en-AU" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> value of k)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-AU"/>
+            <a:endParaRPr lang="en-AU" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1420,8 +1418,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.3673447069116362E-2"/>
-          <c:y val="3.7036898672337483E-2"/>
+          <c:x val="1.6775231481481474E-2"/>
+          <c:y val="3.7037037037037035E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1437,12 +1435,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1460,8 +1455,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18730555555555559"/>
-          <c:y val="0.17634259259259263"/>
+          <c:x val="0.19008333333333335"/>
+          <c:y val="0.17634260589689063"/>
           <c:w val="0.77502777777777776"/>
           <c:h val="0.63670567220764074"/>
         </c:manualLayout>
@@ -1591,93 +1586,93 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ME_C1_Graphs!$C$10:$C$37</c:f>
+              <c:f>ME_C1_Graphs!$E$10:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.0_);\(#,##0.0\);\-??</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>800</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>884.13673446051814</c:v>
+                  <c:v>914.13673446051814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>977.12220652813585</c:v>
+                  <c:v>1007.1222065281358</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1079.8870460608025</c:v>
+                  <c:v>1109.8870460608025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1193.4597581130163</c:v>
+                  <c:v>1223.4597581130163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1318.9770165601026</c:v>
+                  <c:v>1348.9770165601026</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1457.6950403124074</c:v>
+                  <c:v>1487.6950403124074</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1611.0021659763813</c:v>
+                  <c:v>1641.0021659763813</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1780.4327427939743</c:v>
+                  <c:v>1810.4327427939743</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1967.6824889255599</c:v>
+                  <c:v>1997.6824889255599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2174.6254627672361</c:v>
+                  <c:v>2204.6254627672361</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2403.3328191571468</c:v>
+                  <c:v>2433.3328191571468</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2656.0935381892386</c:v>
+                  <c:v>2686.0935381892386</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2935.4373340953957</c:v>
+                  <c:v>2965.4373340953957</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3244.1599734757401</c:v>
+                  <c:v>3274.1599734757401</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3585.3512562704518</c:v>
+                  <c:v>3615.3512562704518</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3962.4259395160921</c:v>
+                  <c:v>3992.4259395160921</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4379.1579133817604</c:v>
+                  <c:v>4409.1579133817604</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4839.7179715303573</c:v>
+                  <c:v>4869.7179715303573</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5348.7155538234165</c:v>
+                  <c:v>5378.7155538234165</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5911.2448791445204</c:v>
+                  <c:v>5941.2448791445204</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6532.9359300541209</c:v>
+                  <c:v>6562.9359300541209</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7220.0107995472972</c:v>
+                  <c:v>7250.0107995472972</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7979.3459638517788</c:v>
+                  <c:v>8009.3459638517788</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8818.5411045132842</c:v>
+                  <c:v>8848.5411045132842</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9745.9951685627784</c:v>
+                  <c:v>9775.9951685627784</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>10770.990428001352</c:v>
+                  <c:v>10800.990428001352</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>11903.785379898269</c:v>
+                  <c:v>11933.785379898269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,1238 +2017,6 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Decay (negative</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> value of k)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="1.922900262467192E-2"/>
-          <c:y val="3.3387263635841137E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ME_C1_Graphs!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Proportionate to N, Positive k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ME_C1_Graphs!$B$10:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ME_C1_Graphs!$D$10:$D$37</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0_);\(#,##0.0\);\-??</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>723.86993442876758</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>654.98460246238551</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>592.65457654537431</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>536.25603682851147</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>485.22452777010676</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>439.04930887522113</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>397.26824303312759</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>359.46317129377724</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>325.25572779247926</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>294.30355293715388</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>266.29686695846362</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>240.95536952976161</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>218.02543442721009</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>197.27757115328515</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>178.50412811874386</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>161.5172143957243</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>146.14681924218769</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>132.23911057726923</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>119.65489537810802</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>108.26822658929017</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>97.965142602385527</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>88.642526689867097</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>80.207074978242971</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>72.574362631529979</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>65.667998899119041</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>59.418862571467102</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>53.764410191799804</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5F8F-42CB-92F3-9E934E3A4943}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2124773040"/>
-        <c:axId val="2124760080"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2124773040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU"/>
-                  <a:t>time (t)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd type="arrow"/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2124760080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2124760080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="900"/>
-          <c:min val="-200"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU"/>
-                  <a:t>Quantity</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> (N)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-AU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.18611111111111112"/>
-              <c:y val="0.54555519101778949"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0.0_);\(#,##0.0\);\-??" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd type="arrow"/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2124773040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="800"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Growth (positive</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> value of k)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="1.6775231481481474E-2"/>
-          <c:y val="3.7037037037037035E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.19008333333333335"/>
-          <c:y val="0.17634260589689063"/>
-          <c:w val="0.77502777777777776"/>
-          <c:h val="0.63670567220764074"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>ME_C1_Graphs!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Proportionate to N, Positive k</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-              <a:tailEnd type="triangle"/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ME_C1_Graphs!$B$10:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ME_C1_Graphs!$E$10:$E$37</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.0_);\(#,##0.0\);\-??</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>914.13673446051814</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1007.1222065281358</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1109.8870460608025</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1223.4597581130163</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1348.9770165601026</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1487.6950403124074</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1641.0021659763813</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1810.4327427939743</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1997.6824889255599</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2204.6254627672361</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2433.3328191571468</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2686.0935381892386</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2965.4373340953957</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3274.1599734757401</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3615.3512562704518</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3992.4259395160921</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4409.1579133817604</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4869.7179715303573</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5378.7155538234165</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5941.2448791445204</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6562.9359300541209</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7250.0107995472972</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8009.3459638517788</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8848.5411045132842</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9775.9951685627784</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10800.990428001352</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11933.785379898269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9F60-4285-B470-D879BCBCDE94}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2124773040"/>
-        <c:axId val="2124760080"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2124773040"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU"/>
-                  <a:t>time (t)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd type="arrow"/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2124760080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2124760080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="-5000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-AU"/>
-                  <a:t>Quantity</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-AU" baseline="0"/>
-                  <a:t> (N)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-AU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.20555555555555552"/>
-              <c:y val="0.26042432195975501"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="#,##0.0_);\(#,##0.0\);\-??" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd type="arrow"/>
-            <a:tailEnd type="arrow"/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2124773040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:noFill/>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
               <a:rPr lang="en-AU" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
@@ -5801,86 +4564,6 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8821,1038 +7504,6 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17641,660 +15292,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>354425</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>112625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7BEA9A-BCDC-4AB3-3E12-BD4E4CA1207C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>395700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>179300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE0E22E-E512-43EE-B9BA-F86806A9DCC2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>450850</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4B00F7-33B7-9CA1-65D9-62E83C9878F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15938500" y="1498600"/>
-          <a:ext cx="971550" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100"/>
-            <a:t>Initial quanity</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
-            <a:t> = A</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-AU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE5B891-D8F6-E8EE-5E60-A95FE386A54C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9702800" y="2324100"/>
-          <a:ext cx="939800" cy="438150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100"/>
-            <a:t>Initial quanity</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-AU" sz="1100" baseline="0"/>
-            <a:t> = A</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-AU" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="768800" cy="180690"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCD0A7C-3E46-79C2-E580-D30E89DE6120}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12417425" y="2346325"/>
-              <a:ext cx="768800" cy="180690"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-AU" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑁</m:t>
-                    </m:r>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-AU" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:srgbClr val="836967"/>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-AU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="en-AU" sz="1100" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-AU" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝐴</m:t>
-                    </m:r>
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-AU" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:srgbClr val="836967"/>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-AU" sz="1100" i="0">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>ⅇ</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-AU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑘𝑡</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-AU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DCD0A7C-3E46-79C2-E580-D30E89DE6120}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12417425" y="2346325"/>
-              <a:ext cx="768800" cy="180690"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-AU" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑁</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-AU" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="836967"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-AU" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑡)=𝐴ⅇ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-AU" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="836967"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-AU" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑘𝑡</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-AU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>339725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="768800" cy="180690"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F0E291-DE63-A2DE-14C4-4A149899BDBB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="18303875" y="2771775"/>
-              <a:ext cx="768800" cy="180690"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-AU" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑁</m:t>
-                    </m:r>
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-AU" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:srgbClr val="836967"/>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-AU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:d>
-                    <m:r>
-                      <a:rPr lang="en-AU" sz="1100" i="0">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-AU" sz="1100" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝐴</m:t>
-                    </m:r>
-                    <m:sSup>
-                      <m:sSupPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-AU" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:srgbClr val="836967"/>
-                            </a:solidFill>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSupPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-AU" sz="1100" i="0">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>ⅇ</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="en-AU" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑘𝑡</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-AU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F0E291-DE63-A2DE-14C4-4A149899BDBB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="18303875" y="2771775"/>
-              <a:ext cx="768800" cy="180690"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-AU" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑁</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-AU" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="836967"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-AU" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑡)=𝐴ⅇ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-AU" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:srgbClr val="836967"/>
-                  </a:solidFill>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-AU" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑘𝑡</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-AU" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
       <xdr:colOff>434975</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
@@ -18322,7 +15319,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18431,7 +15428,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20031,7 +17028,7 @@
   <dimension ref="B2:Q37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P47" sqref="P46:P47"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20044,9 +17041,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="17" x14ac:dyDescent="0.4">
       <c r="B2" s="12"/>
-      <c r="K2" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="K2" s="14"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
@@ -20074,7 +17069,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>30</v>
@@ -20085,16 +17080,16 @@
         <v>19</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
@@ -20370,7 +17365,7 @@
         <v>2686.0935381892386</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.35">
